--- a/Code/Results/Cases/Case_8_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015266622308014</v>
+        <v>1.011027861393321</v>
       </c>
       <c r="D2">
-        <v>1.029662475068966</v>
+        <v>1.026328543115588</v>
       </c>
       <c r="E2">
-        <v>1.028153372423045</v>
+        <v>1.02488810652089</v>
       </c>
       <c r="F2">
-        <v>1.036802320046171</v>
+        <v>1.034253165106818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047844127697326</v>
+        <v>1.046532200360481</v>
       </c>
       <c r="J2">
-        <v>1.03700010605623</v>
+        <v>1.032883660743527</v>
       </c>
       <c r="K2">
-        <v>1.0407234711671</v>
+        <v>1.037432871784986</v>
       </c>
       <c r="L2">
-        <v>1.039233939404508</v>
+        <v>1.036011266453606</v>
       </c>
       <c r="M2">
-        <v>1.047771687529476</v>
+        <v>1.045255065472697</v>
       </c>
       <c r="N2">
-        <v>1.038472765152417</v>
+        <v>1.028034761581079</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04638045318608</v>
+        <v>1.044388728939124</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039865302026065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037547332449839</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021747542429351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.020542447064558</v>
+        <v>1.015461620734385</v>
       </c>
       <c r="D3">
-        <v>1.033164802026292</v>
+        <v>1.029141882927243</v>
       </c>
       <c r="E3">
-        <v>1.032339441112867</v>
+        <v>1.028385669548187</v>
       </c>
       <c r="F3">
-        <v>1.040581446651095</v>
+        <v>1.037497930750973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048989022464105</v>
+        <v>1.047365636948679</v>
       </c>
       <c r="J3">
-        <v>1.040488349496013</v>
+        <v>1.035539480609663</v>
       </c>
       <c r="K3">
-        <v>1.043390215052645</v>
+        <v>1.039414986568256</v>
       </c>
       <c r="L3">
-        <v>1.042574601030759</v>
+        <v>1.038667789546283</v>
       </c>
       <c r="M3">
-        <v>1.050720132201609</v>
+        <v>1.047672487516824</v>
       </c>
       <c r="N3">
-        <v>1.041965962297979</v>
+        <v>1.029523797561576</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048713926934593</v>
+        <v>1.046301943656708</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041748259394456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038945917128247</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022203449930962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023881644498492</v>
+        <v>1.018274576018355</v>
       </c>
       <c r="D4">
-        <v>1.03538417715728</v>
+        <v>1.030929301453967</v>
       </c>
       <c r="E4">
-        <v>1.034994758480055</v>
+        <v>1.030610355042437</v>
       </c>
       <c r="F4">
-        <v>1.042981052750097</v>
+        <v>1.039563582968553</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049702780824862</v>
+        <v>1.047884018962824</v>
       </c>
       <c r="J4">
-        <v>1.042693573928185</v>
+        <v>1.037222093086194</v>
       </c>
       <c r="K4">
-        <v>1.045073509121244</v>
+        <v>1.040668235400858</v>
       </c>
       <c r="L4">
-        <v>1.04468840540915</v>
+        <v>1.040352860488653</v>
       </c>
       <c r="M4">
-        <v>1.052586998433619</v>
+        <v>1.049206854911722</v>
       </c>
       <c r="N4">
-        <v>1.044174318401788</v>
+        <v>1.03046717730817</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050191408332159</v>
+        <v>1.047516281901075</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042939380760372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039833047597462</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022489000054691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025274597622774</v>
+        <v>1.019449002111031</v>
       </c>
       <c r="D5">
-        <v>1.03631323861973</v>
+        <v>1.031678776760979</v>
       </c>
       <c r="E5">
-        <v>1.03610444999102</v>
+        <v>1.031541095258975</v>
       </c>
       <c r="F5">
-        <v>1.043983752141799</v>
+        <v>1.040427569864547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050000143449639</v>
+        <v>1.048100029088783</v>
       </c>
       <c r="J5">
-        <v>1.04361482154891</v>
+        <v>1.037925813860866</v>
       </c>
       <c r="K5">
-        <v>1.04577816936614</v>
+        <v>1.041193925005433</v>
       </c>
       <c r="L5">
-        <v>1.045571631254899</v>
+        <v>1.041057743845001</v>
       </c>
       <c r="M5">
-        <v>1.053366766550424</v>
+        <v>1.049848378201667</v>
       </c>
       <c r="N5">
-        <v>1.045096874299802</v>
+        <v>1.030861725950089</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050808534106557</v>
+        <v>1.048023999518294</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043444769823522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040212624822028</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022608917371291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025515179964621</v>
+        <v>1.019651301666171</v>
       </c>
       <c r="D6">
-        <v>1.03647697807118</v>
+        <v>1.031811145623758</v>
       </c>
       <c r="E6">
-        <v>1.03629700430234</v>
+        <v>1.031702222335409</v>
       </c>
       <c r="F6">
-        <v>1.044156931130142</v>
+        <v>1.040576396832277</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050054123041898</v>
+        <v>1.048139671329596</v>
       </c>
       <c r="J6">
-        <v>1.043776320610265</v>
+        <v>1.038049207138784</v>
       </c>
       <c r="K6">
-        <v>1.045904200873487</v>
+        <v>1.041288692149894</v>
       </c>
       <c r="L6">
-        <v>1.045726157930859</v>
+        <v>1.041180950331946</v>
       </c>
       <c r="M6">
-        <v>1.053502519045347</v>
+        <v>1.049959860916688</v>
       </c>
       <c r="N6">
-        <v>1.045258602708349</v>
+        <v>1.030930907597526</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050915971588498</v>
+        <v>1.04811222969877</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043542587274538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04028923302658</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022631469338886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02392112577587</v>
+        <v>1.018345778805835</v>
       </c>
       <c r="D7">
-        <v>1.035419244071773</v>
+        <v>1.030989019513251</v>
       </c>
       <c r="E7">
-        <v>1.035028443730533</v>
+        <v>1.03067281704112</v>
       </c>
       <c r="F7">
-        <v>1.043009204493163</v>
+        <v>1.039614344767317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049718741849907</v>
+        <v>1.047913400691821</v>
       </c>
       <c r="J7">
-        <v>1.042726233145262</v>
+        <v>1.037285638026875</v>
       </c>
       <c r="K7">
-        <v>1.045105323208653</v>
+        <v>1.040724404156883</v>
       </c>
       <c r="L7">
-        <v>1.044718851346772</v>
+        <v>1.040411740761179</v>
       </c>
       <c r="M7">
-        <v>1.05261200719002</v>
+        <v>1.049254210995608</v>
       </c>
       <c r="N7">
-        <v>1.044207023998699</v>
+        <v>1.030554746668423</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050211200824308</v>
+        <v>1.047553760705179</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042981901249124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039894849133772</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02250850394979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017092097362151</v>
+        <v>1.012684993186493</v>
       </c>
       <c r="D8">
-        <v>1.030884745622677</v>
+        <v>1.027409455795059</v>
       </c>
       <c r="E8">
-        <v>1.029603564063572</v>
+        <v>1.026210649407633</v>
       </c>
       <c r="F8">
-        <v>1.038108101447083</v>
+        <v>1.035460792440971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048252057738026</v>
+        <v>1.046884389454674</v>
       </c>
       <c r="J8">
-        <v>1.038215850553526</v>
+        <v>1.033931522291687</v>
       </c>
       <c r="K8">
-        <v>1.04166200384443</v>
+        <v>1.038230519676697</v>
       </c>
       <c r="L8">
-        <v>1.040396928511907</v>
+        <v>1.037046910049059</v>
       </c>
       <c r="M8">
-        <v>1.048795478125981</v>
+        <v>1.046180928755917</v>
       </c>
       <c r="N8">
-        <v>1.039690236146334</v>
+        <v>1.028779930546122</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047190707814557</v>
+        <v>1.045121483358134</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040551774973152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038136511011507</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021947981294147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004418599019504</v>
+        <v>1.002109618424574</v>
       </c>
       <c r="D9">
-        <v>1.022480017672462</v>
+        <v>1.020711466411499</v>
       </c>
       <c r="E9">
-        <v>1.019581762407703</v>
+        <v>1.017904479974822</v>
       </c>
       <c r="F9">
-        <v>1.029077813281201</v>
+        <v>1.027764293744824</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045433145297517</v>
+        <v>1.044838798412009</v>
       </c>
       <c r="J9">
-        <v>1.029816284262576</v>
+        <v>1.027588099938549</v>
       </c>
       <c r="K9">
-        <v>1.035218605085088</v>
+        <v>1.033477219877307</v>
       </c>
       <c r="L9">
-        <v>1.032364931818022</v>
+        <v>1.030713598097478</v>
       </c>
       <c r="M9">
-        <v>1.041716103755053</v>
+        <v>1.0404224210075</v>
       </c>
       <c r="N9">
-        <v>1.031278741507808</v>
+        <v>1.025242838730499</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041587887640767</v>
+        <v>1.040564025302029</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035992680914252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034772154023153</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02083984791716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9956565787750259</v>
+        <v>0.9950379228881614</v>
       </c>
       <c r="D10">
-        <v>1.016711586102151</v>
+        <v>1.016303494564087</v>
       </c>
       <c r="E10">
-        <v>1.012734691307338</v>
+        <v>1.012451466243457</v>
       </c>
       <c r="F10">
-        <v>1.022967129192163</v>
+        <v>1.022741542738739</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043465550431011</v>
+        <v>1.043498681450502</v>
       </c>
       <c r="J10">
-        <v>1.024043590339407</v>
+        <v>1.023449806469369</v>
       </c>
       <c r="K10">
-        <v>1.030785523865612</v>
+        <v>1.030384494184306</v>
       </c>
       <c r="L10">
-        <v>1.026877761700059</v>
+        <v>1.026599486932875</v>
       </c>
       <c r="M10">
-        <v>1.036933727929579</v>
+        <v>1.036711982847162</v>
       </c>
       <c r="N10">
-        <v>1.025497849697131</v>
+        <v>1.023155969811526</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037854430933841</v>
+        <v>1.037678944859253</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032875037788814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032603939144883</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020136721345733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9929143956341894</v>
+        <v>0.9930570812854098</v>
       </c>
       <c r="D11">
-        <v>1.015071788563437</v>
+        <v>1.015270440824482</v>
       </c>
       <c r="E11">
-        <v>1.010956117457945</v>
+        <v>1.011311337594692</v>
       </c>
       <c r="F11">
-        <v>1.021742728070469</v>
+        <v>1.022020270010653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043113114853544</v>
+        <v>1.043427919663168</v>
       </c>
       <c r="J11">
-        <v>1.022584944040515</v>
+        <v>1.022721573624571</v>
       </c>
       <c r="K11">
-        <v>1.029714962314965</v>
+        <v>1.029910012508735</v>
       </c>
       <c r="L11">
-        <v>1.025674333488905</v>
+        <v>1.026023045427853</v>
       </c>
       <c r="M11">
-        <v>1.03626593556834</v>
+        <v>1.036538530406953</v>
       </c>
       <c r="N11">
-        <v>1.024037131953185</v>
+        <v>1.02319264122588</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037762517326054</v>
+        <v>1.037978136581915</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032151060498719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032304640484284</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020143287510776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923298825501524</v>
+        <v>0.9926465371816241</v>
       </c>
       <c r="D12">
-        <v>1.014809664492611</v>
+        <v>1.015143660418327</v>
       </c>
       <c r="E12">
-        <v>1.010769102714685</v>
+        <v>1.011265239259971</v>
       </c>
       <c r="F12">
-        <v>1.021840393677719</v>
+        <v>1.022230851437828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043185240841758</v>
+        <v>1.043554857664491</v>
       </c>
       <c r="J12">
-        <v>1.02246244061053</v>
+        <v>1.022765402497846</v>
       </c>
       <c r="K12">
-        <v>1.029658530399907</v>
+        <v>1.029986371194286</v>
       </c>
       <c r="L12">
-        <v>1.025692851659837</v>
+        <v>1.026179751349155</v>
       </c>
       <c r="M12">
-        <v>1.03656079624572</v>
+        <v>1.036944187030932</v>
       </c>
       <c r="N12">
-        <v>1.023914454554279</v>
+        <v>1.023410349239594</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03832229249166</v>
+        <v>1.038625447290817</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032111161028279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032358627761442</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020235510139189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9933965176772819</v>
+        <v>0.9933899055470697</v>
       </c>
       <c r="D13">
-        <v>1.015618264789646</v>
+        <v>1.015687418819837</v>
       </c>
       <c r="E13">
-        <v>1.01182083430245</v>
+        <v>1.012034653957286</v>
       </c>
       <c r="F13">
-        <v>1.022992635132855</v>
+        <v>1.023163757841905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043608262195462</v>
+        <v>1.043838315296104</v>
       </c>
       <c r="J13">
-        <v>1.023389348110763</v>
+        <v>1.023383020113422</v>
       </c>
       <c r="K13">
-        <v>1.030409187685841</v>
+        <v>1.03047707375925</v>
       </c>
       <c r="L13">
-        <v>1.026681730976155</v>
+        <v>1.026891592469818</v>
       </c>
       <c r="M13">
-        <v>1.037649601852621</v>
+        <v>1.037817645890181</v>
       </c>
       <c r="N13">
-        <v>1.024842678369479</v>
+        <v>1.023713647239045</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039459857647302</v>
+        <v>1.039592700082655</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03263940276728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032702822051857</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020396258833618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9948873162693962</v>
+        <v>0.99443959578079</v>
       </c>
       <c r="D14">
-        <v>1.016668145291919</v>
+        <v>1.016379826979606</v>
       </c>
       <c r="E14">
-        <v>1.013113662105826</v>
+        <v>1.012948574435361</v>
       </c>
       <c r="F14">
-        <v>1.024272413994121</v>
+        <v>1.0241478244081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044062165796876</v>
+        <v>1.0441123481863</v>
       </c>
       <c r="J14">
-        <v>1.024510307045065</v>
+        <v>1.024081525222413</v>
       </c>
       <c r="K14">
-        <v>1.031298990787478</v>
+        <v>1.031015889143446</v>
       </c>
       <c r="L14">
-        <v>1.027809090298861</v>
+        <v>1.027647016504408</v>
       </c>
       <c r="M14">
-        <v>1.038767047693327</v>
+        <v>1.038644668675909</v>
       </c>
       <c r="N14">
-        <v>1.025965229194044</v>
+        <v>1.023969550582359</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040516427954306</v>
+        <v>1.040419697722836</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03326995546492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033085344165176</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020543470900457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9956198580379519</v>
+        <v>0.9949620928274712</v>
       </c>
       <c r="D15">
-        <v>1.01716688297158</v>
+        <v>1.016709601024292</v>
       </c>
       <c r="E15">
-        <v>1.013711818164931</v>
+        <v>1.013368168316298</v>
       </c>
       <c r="F15">
-        <v>1.024832849650318</v>
+        <v>1.024568637463055</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044255045376639</v>
+        <v>1.044222462926184</v>
       </c>
       <c r="J15">
-        <v>1.025023798733393</v>
+        <v>1.024393599393882</v>
       </c>
       <c r="K15">
-        <v>1.031701988362899</v>
+        <v>1.031252914996176</v>
       </c>
       <c r="L15">
-        <v>1.028309183278671</v>
+        <v>1.027971756136716</v>
       </c>
       <c r="M15">
-        <v>1.039231758607938</v>
+        <v>1.038972196553217</v>
       </c>
       <c r="N15">
-        <v>1.026479450099468</v>
+        <v>1.024064269939842</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040921249652131</v>
+        <v>1.040716093234489</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033560774633439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03325938531853</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020600259982516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.999129901705972</v>
+        <v>0.9975405646480275</v>
       </c>
       <c r="D16">
-        <v>1.019454466427963</v>
+        <v>1.018253808901007</v>
       </c>
       <c r="E16">
-        <v>1.016413198221895</v>
+        <v>1.01528848002825</v>
       </c>
       <c r="F16">
-        <v>1.027228681471803</v>
+        <v>1.026352890801858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04502088286756</v>
+        <v>1.044636741341617</v>
       </c>
       <c r="J16">
-        <v>1.027301187859247</v>
+        <v>1.025775003992749</v>
       </c>
       <c r="K16">
-        <v>1.033445456179075</v>
+        <v>1.03226539160363</v>
       </c>
       <c r="L16">
-        <v>1.03045647213423</v>
+        <v>1.029351192253717</v>
       </c>
       <c r="M16">
-        <v>1.041087834642925</v>
+        <v>1.040226767057004</v>
       </c>
       <c r="N16">
-        <v>1.028760073379101</v>
+        <v>1.024434111809814</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042349614574084</v>
+        <v>1.04166901177769</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03479663844498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033978714671899</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020798239902841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001042826265768</v>
+        <v>0.9990116678859788</v>
       </c>
       <c r="D17">
-        <v>1.020661659121279</v>
+        <v>1.019110219570158</v>
       </c>
       <c r="E17">
-        <v>1.017809991257484</v>
+        <v>1.016320399892862</v>
       </c>
       <c r="F17">
-        <v>1.028392503768049</v>
+        <v>1.02723086976433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045368707443544</v>
+        <v>1.044824737288528</v>
       </c>
       <c r="J17">
-        <v>1.028460989098766</v>
+        <v>1.026507879291824</v>
       </c>
       <c r="K17">
-        <v>1.034316860136409</v>
+        <v>1.032791273577613</v>
       </c>
       <c r="L17">
-        <v>1.031512790349658</v>
+        <v>1.030048199167029</v>
       </c>
       <c r="M17">
-        <v>1.041920373219515</v>
+        <v>1.040777714730056</v>
       </c>
       <c r="N17">
-        <v>1.02992152166941</v>
+        <v>1.02465713607294</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042878824116005</v>
+        <v>1.041975556991428</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035415341669627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034353373842505</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020882695778113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001734158386363</v>
+        <v>0.9995844116839293</v>
       </c>
       <c r="D18">
-        <v>1.021023562605865</v>
+        <v>1.019380233733728</v>
       </c>
       <c r="E18">
-        <v>1.01817193015131</v>
+        <v>1.016589968555243</v>
       </c>
       <c r="F18">
-        <v>1.028543801275966</v>
+        <v>1.027308592687835</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045372820681322</v>
+        <v>1.044794586314947</v>
       </c>
       <c r="J18">
-        <v>1.028731811012287</v>
+        <v>1.026663128644044</v>
       </c>
       <c r="K18">
-        <v>1.03448900805721</v>
+        <v>1.032872619089928</v>
       </c>
       <c r="L18">
-        <v>1.031684195198372</v>
+        <v>1.030128352870995</v>
       </c>
       <c r="M18">
-        <v>1.041887372627667</v>
+        <v>1.04067202486865</v>
       </c>
       <c r="N18">
-        <v>1.030192728181112</v>
+        <v>1.024661896943993</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042615430603196</v>
+        <v>1.041654503120004</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03552540704555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034398090723483</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020850294348465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001367395125814</v>
+        <v>0.999344006545802</v>
       </c>
       <c r="D19">
-        <v>1.020671988455229</v>
+        <v>1.019133364190063</v>
       </c>
       <c r="E19">
-        <v>1.017636724376468</v>
+        <v>1.016166924942103</v>
       </c>
       <c r="F19">
-        <v>1.027805076964127</v>
+        <v>1.026655382103145</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045096732897886</v>
+        <v>1.044577722779034</v>
       </c>
       <c r="J19">
-        <v>1.028244517502441</v>
+        <v>1.026297047132996</v>
       </c>
       <c r="K19">
-        <v>1.034080505072752</v>
+        <v>1.032566988519154</v>
       </c>
       <c r="L19">
-        <v>1.031094864972267</v>
+        <v>1.029649232553562</v>
       </c>
       <c r="M19">
-        <v>1.041098453034806</v>
+        <v>1.039967177542444</v>
       </c>
       <c r="N19">
-        <v>1.029704742658589</v>
+        <v>1.024433486258286</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041666624880334</v>
+        <v>1.040771878450374</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035242985856763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034189038527256</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020720039948798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9979975870403265</v>
+        <v>0.9967923170955276</v>
       </c>
       <c r="D20">
-        <v>1.018274993625287</v>
+        <v>1.017396965604342</v>
       </c>
       <c r="E20">
-        <v>1.014570795372865</v>
+        <v>1.013793273700981</v>
       </c>
       <c r="F20">
-        <v>1.02460116296137</v>
+        <v>1.023988920791624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044016723692325</v>
+        <v>1.043823874074384</v>
       </c>
       <c r="J20">
-        <v>1.025605917172993</v>
+        <v>1.024447451996247</v>
       </c>
       <c r="K20">
-        <v>1.032003934674037</v>
+        <v>1.031140655918105</v>
       </c>
       <c r="L20">
-        <v>1.028362183869747</v>
+        <v>1.027597844894325</v>
       </c>
       <c r="M20">
-        <v>1.038224797475038</v>
+        <v>1.037622673602398</v>
       </c>
       <c r="N20">
-        <v>1.027062395214022</v>
+        <v>1.023519687766062</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038865620446707</v>
+        <v>1.03838910215877</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033778709647269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03318490126193</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020303844580199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9911564596709769</v>
+        <v>0.9919262171301175</v>
       </c>
       <c r="D21">
-        <v>1.013748086007146</v>
+        <v>1.01445760372285</v>
       </c>
       <c r="E21">
-        <v>1.009171136896593</v>
+        <v>1.010076090575326</v>
       </c>
       <c r="F21">
-        <v>1.019717401905557</v>
+        <v>1.020423925309209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042409538273323</v>
+        <v>1.042993226051967</v>
       </c>
       <c r="J21">
-        <v>1.02102863608191</v>
+        <v>1.021765421788557</v>
       </c>
       <c r="K21">
-        <v>1.028473595290293</v>
+        <v>1.029170153254375</v>
       </c>
       <c r="L21">
-        <v>1.023980817747616</v>
+        <v>1.024869050182343</v>
       </c>
       <c r="M21">
-        <v>1.034334609105981</v>
+        <v>1.035028422931499</v>
       </c>
       <c r="N21">
-        <v>1.022478613858768</v>
+        <v>1.022828122650211</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035745914591781</v>
+        <v>1.036295025156436</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031285875158203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031795254093164</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019905162215611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9867854065099194</v>
+        <v>0.9888225400056901</v>
       </c>
       <c r="D22">
-        <v>1.010861509704499</v>
+        <v>1.012596254740138</v>
       </c>
       <c r="E22">
-        <v>1.005749097566583</v>
+        <v>1.00773702926457</v>
       </c>
       <c r="F22">
-        <v>1.016651287693331</v>
+        <v>1.018208875973367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041379859673572</v>
+        <v>1.042467403275355</v>
       </c>
       <c r="J22">
-        <v>1.018116761646624</v>
+        <v>1.020061284914705</v>
       </c>
       <c r="K22">
-        <v>1.02622082566236</v>
+        <v>1.027922240325879</v>
       </c>
       <c r="L22">
-        <v>1.021207517613592</v>
+        <v>1.023156756633995</v>
       </c>
       <c r="M22">
-        <v>1.031899942361191</v>
+        <v>1.033428040854375</v>
       </c>
       <c r="N22">
-        <v>1.019562604227788</v>
+        <v>1.022346788206558</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033819023656226</v>
+        <v>1.035028421467019</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029679491952294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030898060816444</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019655557267894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9890920107397015</v>
+        <v>0.9903881672578162</v>
       </c>
       <c r="D23">
-        <v>1.012375633707597</v>
+        <v>1.013509039749578</v>
       </c>
       <c r="E23">
-        <v>1.00755103732065</v>
+        <v>1.008900909217061</v>
       </c>
       <c r="F23">
-        <v>1.01826773529592</v>
+        <v>1.019323216235863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041916796037567</v>
+        <v>1.042705495230094</v>
       </c>
       <c r="J23">
-        <v>1.019647066977576</v>
+        <v>1.020886109858337</v>
       </c>
       <c r="K23">
-        <v>1.027398621710171</v>
+        <v>1.02851082083037</v>
       </c>
       <c r="L23">
-        <v>1.022664995296822</v>
+        <v>1.023989300171972</v>
       </c>
       <c r="M23">
-        <v>1.033181148921432</v>
+        <v>1.034217175582512</v>
       </c>
       <c r="N23">
-        <v>1.021095082767837</v>
+        <v>1.022488014385686</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034833021530498</v>
+        <v>1.035652973207195</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030502561575058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031303591506233</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019759772576599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9979672805838627</v>
+        <v>0.9967739077218938</v>
       </c>
       <c r="D24">
-        <v>1.018228195528256</v>
+        <v>1.017359785955035</v>
       </c>
       <c r="E24">
-        <v>1.014509005449887</v>
+        <v>1.013742401129705</v>
       </c>
       <c r="F24">
-        <v>1.024513166376235</v>
+        <v>1.023909156333319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043973863612658</v>
+        <v>1.043787249723413</v>
       </c>
       <c r="J24">
-        <v>1.025543803534745</v>
+        <v>1.024396711491825</v>
       </c>
       <c r="K24">
-        <v>1.031942590789523</v>
+        <v>1.031088751746649</v>
       </c>
       <c r="L24">
-        <v>1.02828602907135</v>
+        <v>1.027532407517498</v>
       </c>
       <c r="M24">
-        <v>1.03812305722127</v>
+        <v>1.037529018746984</v>
       </c>
       <c r="N24">
-        <v>1.027000193367282</v>
+        <v>1.023483291750231</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038744230892968</v>
+        <v>1.038274087966421</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033707854079723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033118027626045</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020279835708844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007806995120703</v>
+        <v>1.004873432705689</v>
       </c>
       <c r="D25">
-        <v>1.0247378689434</v>
+        <v>1.022464551350516</v>
       </c>
       <c r="E25">
-        <v>1.02225919937651</v>
+        <v>1.02006694274875</v>
       </c>
       <c r="F25">
-        <v>1.031484091167262</v>
+        <v>1.029769523679871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046208674898546</v>
+        <v>1.045381448108784</v>
       </c>
       <c r="J25">
-        <v>1.032074449228774</v>
+        <v>1.029237892173049</v>
       </c>
       <c r="K25">
-        <v>1.036963925965537</v>
+        <v>1.034723863327678</v>
       </c>
       <c r="L25">
-        <v>1.034521524567064</v>
+        <v>1.032361531859195</v>
       </c>
       <c r="M25">
-        <v>1.043612554660159</v>
+        <v>1.041922637251711</v>
       </c>
       <c r="N25">
-        <v>1.033540113327273</v>
+        <v>1.026101778782421</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043088797564351</v>
+        <v>1.041751344791032</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037255331882564</v>
+        <v>1.035685053014337</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021131924060141</v>
       </c>
     </row>
   </sheetData>
